--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459006.685291794</v>
+        <v>2456754.605580587</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>92.72329049755695</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.543542378764921</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>94.57983363107971</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>378.1751775729935</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.539868031607</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>134.9994691657081</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>188.8434718521925</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>105.6685336178174</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>78.87747437598985</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>186.8460807091483</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386348</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>184.3755225607023</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053504</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217836</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>111.551214499872</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754561</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>48.85497112745948</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787976815</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
-        <v>18.7084378797731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>916.2975690719577</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>724.611684898784</v>
       </c>
       <c r="T4" t="n">
-        <v>825.3518203322459</v>
+        <v>502.84506946831</v>
       </c>
       <c r="U4" t="n">
-        <v>825.3518203322459</v>
+        <v>502.84506946831</v>
       </c>
       <c r="V4" t="n">
-        <v>825.3518203322459</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>825.3518203322459</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>825.3518203322459</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>825.3518203322459</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.539111149739</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>905.5765942093278</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>905.5765942093278</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>905.5765942093278</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,7 +4565,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4604,13 +4604,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
         <v>312.3844025601599</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>730.1360241493036</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V7" t="n">
-        <v>730.1360241493036</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="W7" t="n">
-        <v>440.718854112343</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="X7" t="n">
-        <v>212.7293032143256</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.7293032143256</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4802,10 +4802,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3245.931605067766</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3039.953857451988</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2786.423380725825</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2455.360493382254</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2455.360493382254</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2455.360493382254</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
         <v>66.5121164321834</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192605</v>
@@ -5279,13 +5279,13 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,22 +5294,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5710,13 +5710,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.853600740073</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>513.853600740073</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>513.853600740073</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138429</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703128</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192548</v>
@@ -6464,49 +6464,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392193785</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075289</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>114.1584408891652</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108222</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>97.57899151910969</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664557</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.6400068796</v>
-      </c>
       <c r="G4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="I4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="J4" t="n">
-        <v>15436.64000687967</v>
-      </c>
       <c r="K4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26485,7 +26485,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482189</v>
+        <v>-893968.0587482188</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793741</v>
+        <v>434776.6869793743</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793743</v>
+        <v>434776.6869793744</v>
       </c>
       <c r="E6" t="n">
-        <v>183566.9831216123</v>
+        <v>183532.2451961766</v>
       </c>
       <c r="F6" t="n">
-        <v>508979.4449289685</v>
+        <v>508944.7070035326</v>
       </c>
       <c r="G6" t="n">
-        <v>508979.4449289679</v>
+        <v>508944.7070035324</v>
       </c>
       <c r="H6" t="n">
-        <v>508979.4449289682</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="I6" t="n">
-        <v>508979.4449289678</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="J6" t="n">
-        <v>291448.2425316907</v>
+        <v>291413.5046062553</v>
       </c>
       <c r="K6" t="n">
-        <v>508979.4449289679</v>
+        <v>508944.7070035325</v>
       </c>
       <c r="L6" t="n">
-        <v>508979.4449289682</v>
+        <v>508944.7070035324</v>
       </c>
       <c r="M6" t="n">
-        <v>423924.4169934561</v>
+        <v>423889.6790680204</v>
       </c>
       <c r="N6" t="n">
-        <v>508979.444928968</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="O6" t="n">
-        <v>508979.4449289682</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="P6" t="n">
-        <v>508979.4449289679</v>
+        <v>508944.7070035322</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>272.5496012734506</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>84.3886102912824</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>124.9691156450895</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>28.70086816871793</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244466</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>97.36836635342038</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>146.4691097060106</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>30.31028741218599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>17.0718894304718</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>34.20913079139251</v>
       </c>
     </row>
     <row r="11">
@@ -28093,16 +28093,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>-1.080024958355352e-12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.088782796132588e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.761884095931661e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31607,13 +31607,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>592.18749414096</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32309,10 +32309,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>270.4557004614709</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>395.184849093591</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132138</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35574,10 +35574,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010488</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610858</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715726</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010465</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
